--- a/10b/9_2024_02_23/kozoskoltseg.xlsx
+++ b/10b/9_2024_02_23/kozoskoltseg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\bullshitBundle\kossuth\10b\9_2024_02_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB65E2B-EC40-46E5-B912-E1B24B4124B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E20A142-8519-4E31-ADCC-6730EA450794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8677DF74-03CC-4973-9561-755FBF61B3B1}"/>
   </bookViews>
@@ -199,7 +199,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="#,##0\ &quot;Ft&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;Ft&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -235,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -251,6 +251,995 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>A közös költség alakulása</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2178876882153367E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.8542207574862567"/>
+          <c:h val="0.72125801983085447"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="97000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$4:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>B3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>B4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>C1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>C2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>C3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>C4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>D3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>D4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$F$4:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0\ "Ft"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>11120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15440</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18960</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8640</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17760</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4880</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10960</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15440</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11760</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EF1-4C7B-BFB3-7F1DFC3A8338}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="119"/>
+        <c:overlap val="-23"/>
+        <c:axId val="1953206400"/>
+        <c:axId val="1079444128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1953206400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1079444128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1079444128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0\ &quot;Ft&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1953206400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4260E6-EF31-A882-14BB-76CFAE4B3777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B54620A-3757-410D-9A12-45649C15A9C3}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F20" si="0">C5*$I$3+D5*$I$4+E5*$I$5</f>
+        <f t="shared" ref="F5:F19" si="0">C5*$I$3+D5*$I$4+E5*$I$5</f>
         <v>8960</v>
       </c>
       <c r="H5" t="s">
@@ -1056,5 +2045,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/10b/9_2024_02_23/kozoskoltseg.xlsx
+++ b/10b/9_2024_02_23/kozoskoltseg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\bullshitBundle\kossuth\10b\9_2024_02_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\OneDrive\Desktop\bullshitBundle\kossuthrepo\10b\9_2024_02_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E20A142-8519-4E31-ADCC-6730EA450794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FA08B6-B180-401F-8DEE-9F7BF62BE3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8677DF74-03CC-4973-9561-755FBF61B3B1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{8677DF74-03CC-4973-9561-755FBF61B3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;Ft&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,16 +210,67 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -227,15 +278,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -287,15 +450,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="hu-HU" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>A közös költség alakulása</a:t>
+              <a:rPr lang="en-GB" sz="2000" b="1" i="1"/>
+              <a:t>Közös</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000" b="1" i="1" baseline="0"/>
+              <a:t> költség</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU" sz="2000" b="1" i="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -330,17 +492,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.2178876882153367E-2"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.8542207574862567"/>
-          <c:h val="0.72125801983085447"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -350,16 +502,10 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="97000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -479,7 +625,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1EF1-4C7B-BFB3-7F1DFC3A8338}"/>
+              <c16:uniqueId val="{00000000-AF6C-48A8-9496-C4DFB3851FB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -491,13 +637,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="119"/>
-        <c:overlap val="-23"/>
-        <c:axId val="1953206400"/>
-        <c:axId val="1079444128"/>
+        <c:gapWidth val="47"/>
+        <c:axId val="233472191"/>
+        <c:axId val="228524719"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1953206400"/>
+        <c:axId val="233472191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,7 +685,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1079444128"/>
+        <c:crossAx val="228524719"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -548,7 +693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1079444128"/>
+        <c:axId val="228524719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25000"/>
@@ -600,7 +745,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1953206400"/>
+        <c:crossAx val="233472191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1205,23 +1350,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>603017</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>934640</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4260E6-EF31-A882-14BB-76CFAE4B3777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA93403-2B9B-E093-74E7-9109A739F31F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,489 +1706,551 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B54620A-3757-410D-9A12-45649C15A9C3}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>84</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="10">
         <f>C4*$I$3+D4*$I$4+E4*$I$5</f>
         <v>11120</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="20">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>62</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E5" s="9"/>
+      <c r="F5" s="10">
         <f t="shared" ref="F5:F19" si="0">C5*$I$3+D5*$I$4+E5*$I$5</f>
         <v>8960</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="20">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>114</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>40</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>17920</v>
       </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>90</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="E7" s="9"/>
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="20" t="str">
         <f>INDEX(A4:A19,MATCH(MAX(C4:C19),C4:C19,0))</f>
         <v>C3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <v>72</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="12">
         <v>20</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>12160</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="20">
         <f>INDEX(C4:C19,MATCH(I7,A4:A19,0))</f>
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="12">
         <v>88</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="12">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="12">
         <v>20</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>15440</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
         <v>22</v>
       </c>
+      <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="12">
         <v>132</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="12">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="12">
         <v>20</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
         <v>18960</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="20" t="str">
         <f>INDEX(B4:B19,MATCH(I7,A4:A19,0))</f>
         <v>Berhidai Ernő</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="12">
         <v>58</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="12">
         <v>2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="E11" s="12"/>
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>8640</v>
       </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="15">
         <v>92</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="15">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="15">
         <v>20</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="16">
         <f t="shared" si="0"/>
         <v>17760</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="20" t="str">
         <f>INDEX(A4:A19,MATCH(LARGE(C4:C19,2),C4:C19,0))</f>
         <v>B3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="15">
         <v>36</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="15">
         <v>1</v>
       </c>
-      <c r="F13" s="3">
+      <c r="E13" s="15"/>
+      <c r="F13" s="16">
         <f t="shared" si="0"/>
         <v>4880</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="20">
         <f>INDEX(C4:C19,MATCH(I12,A4:A19,0))</f>
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="15">
         <v>144</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="15">
         <v>6</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="15">
         <v>40</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="16">
         <f t="shared" si="0"/>
         <v>24320</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
         <v>22</v>
       </c>
+      <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="15">
         <v>78</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="15">
         <v>2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="E15" s="15"/>
+      <c r="F15" s="16">
         <f t="shared" si="0"/>
         <v>10240</v>
       </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="18">
         <v>82</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="18">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="18">
         <v>20</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="19">
         <f t="shared" si="0"/>
         <v>10960</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I16">
-        <f>COUNTIF(E4:E19,20) + COUNTIF(E4:E19,40)</f>
-        <v>10</v>
+      <c r="I16" s="20">
+        <f>E20/I5</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="18">
         <v>88</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="18">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="18">
         <v>20</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="19">
         <f t="shared" si="0"/>
         <v>15440</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="20">
         <f>COUNTIF(E4:E19,40)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="18">
         <v>72</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="18">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="E18" s="18"/>
+      <c r="F18" s="19">
         <f t="shared" si="0"/>
         <v>11760</v>
       </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="18">
         <v>108</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="18">
         <v>4</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="18">
         <v>20</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="19">
         <f t="shared" si="0"/>
         <v>17040</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="20">
         <f>COUNTIF(C4:C19,"&gt;100")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <f t="shared" ref="C20:E20" si="1">SUM(C4:C19)</f>
         <v>1400</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <f>SUM(F4:F19)</f>
         <v>218800</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="6">
         <f>I19/COUNTA(A4:A19)</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="7">
         <f>AVERAGE(C4:C19)</f>
         <v>87.5</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="7">
         <f t="shared" ref="D21:F21" si="2">AVERAGE(D4:D19)</f>
         <v>3.1875</v>
       </c>
-      <c r="F21" s="3">
+      <c r="E21" s="4"/>
+      <c r="F21" s="5">
         <f t="shared" si="2"/>
         <v>13675</v>
       </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
